--- a/REGULAR/MAYORS OFFICE/FERMA, ARCELI.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, ARCELI.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="446">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1369,6 +1369,9 @@
   </si>
   <si>
     <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2240,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2347,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2407,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2536,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2634,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2693,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2758,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2801,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2876,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3062,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3128,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +3186,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3252,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3305,7 +3308,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3383,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3423,7 +3426,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3492,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3548,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3643,7 +3646,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3709,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3775,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K609" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K610" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4150,12 +4153,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K609"/>
+  <dimension ref="A2:K610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4035" topLeftCell="A548" activePane="bottomLeft"/>
+      <pane ySplit="4035" topLeftCell="A554" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
+      <selection pane="bottomLeft" activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,7 +4321,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.91400000000004</v>
+        <v>128.41400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4328,7 +4331,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>268.875</v>
+        <v>271.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12369,7 +12372,7 @@
       <c r="H359" s="39"/>
       <c r="I359" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>268.875</v>
+        <v>271.375</v>
       </c>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
@@ -17037,13 +17040,15 @@
       <c r="B567" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C567" s="13"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39">
         <v>1</v>
@@ -17059,13 +17064,15 @@
         <v>45261</v>
       </c>
       <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -17073,8 +17080,8 @@
       <c r="K568" s="20"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>45292</v>
+      <c r="A569" s="48" t="s">
+        <v>445</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -17092,7 +17099,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -17110,7 +17117,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17128,7 +17135,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17146,7 +17153,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17164,7 +17171,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17182,7 +17189,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17200,7 +17207,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17218,7 +17225,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17236,7 +17243,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17254,7 +17261,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17272,7 +17279,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17290,7 +17297,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17308,7 +17315,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17326,7 +17333,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17344,7 +17351,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17362,7 +17369,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17379,7 +17386,9 @@
       <c r="K585" s="20"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40"/>
+      <c r="A586" s="40">
+        <v>45778</v>
+      </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
@@ -17747,20 +17756,36 @@
       <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="41"/>
-      <c r="B609" s="15"/>
-      <c r="C609" s="42"/>
-      <c r="D609" s="43"/>
+      <c r="A609" s="40"/>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
       <c r="E609" s="9"/>
-      <c r="F609" s="15"/>
-      <c r="G609" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H609" s="43"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
       <c r="I609" s="9"/>
-      <c r="J609" s="12"/>
-      <c r="K609" s="15"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="41"/>
+      <c r="B610" s="15"/>
+      <c r="C610" s="42"/>
+      <c r="D610" s="43"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="15"/>
+      <c r="G610" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="43"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="12"/>
+      <c r="K610" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17808,7 +17833,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17930,7 +17955,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>394.78900000000004</v>
+        <v>399.78900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAYORS OFFICE/FERMA, ARCELI.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, ARCELI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33B8252-778F-4DDF-893B-F51019A0AFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="446">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1377,7 +1378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2240,7 +2241,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2284,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2348,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2408,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2474,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2537,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2635,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2694,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2759,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2802,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2877,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3063,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3129,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3187,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3252,7 +3253,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3308,7 +3309,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3384,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3427,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3493,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,7 +3549,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3647,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3709,7 +3710,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3758,7 +3759,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3775,25 +3776,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K610" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3805,13 +3806,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3820,14 +3821,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4131,7 +4132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4141,7 +4142,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4149,34 +4150,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K610"/>
+  <dimension ref="A2:K611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4035" topLeftCell="A554" activePane="bottomLeft"/>
+      <pane ySplit="4032" topLeftCell="A563" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B568" sqref="B568"/>
+      <selection pane="bottomLeft" activeCell="K572" sqref="K572"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4197,7 +4198,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4218,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4239,7 +4240,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4247,7 +4248,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4260,7 +4261,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4277,7 +4278,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4321,7 +4322,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.41400000000004</v>
+        <v>129.66400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4331,12 +4332,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>271.375</v>
+        <v>271.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4358,7 +4359,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>33619</v>
       </c>
@@ -4378,7 +4379,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>33635</v>
       </c>
@@ -4398,7 +4399,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>33664</v>
       </c>
@@ -4418,7 +4419,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>33695</v>
       </c>
@@ -4438,7 +4439,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>33725</v>
       </c>
@@ -4458,7 +4459,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>33756</v>
       </c>
@@ -4478,7 +4479,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>33786</v>
       </c>
@@ -4498,7 +4499,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>33817</v>
       </c>
@@ -4518,7 +4519,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>33848</v>
       </c>
@@ -4538,7 +4539,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>33878</v>
       </c>
@@ -4558,7 +4559,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>33909</v>
       </c>
@@ -4578,7 +4579,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>33939</v>
       </c>
@@ -4602,7 +4603,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -4624,7 +4625,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>33970</v>
       </c>
@@ -4644,7 +4645,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>34001</v>
       </c>
@@ -4664,7 +4665,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>34029</v>
       </c>
@@ -4684,7 +4685,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>34060</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>34090</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>34121</v>
       </c>
@@ -4756,7 +4757,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>34151</v>
       </c>
@@ -4776,7 +4777,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>34182</v>
       </c>
@@ -4796,7 +4797,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>34213</v>
       </c>
@@ -4820,7 +4821,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>34243</v>
       </c>
@@ -4844,7 +4845,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>34274</v>
       </c>
@@ -4868,7 +4869,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>34304</v>
       </c>
@@ -4894,7 +4895,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -4916,7 +4917,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>34335</v>
       </c>
@@ -4936,7 +4937,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>34366</v>
       </c>
@@ -4956,7 +4957,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>34394</v>
       </c>
@@ -4976,7 +4977,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>34425</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>34446</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>34455</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>34456</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>34486</v>
       </c>
@@ -5048,7 +5049,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>34516</v>
       </c>
@@ -5072,7 +5073,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>34547</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>34556</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>34578</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>34608</v>
       </c>
@@ -5144,7 +5145,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>34639</v>
       </c>
@@ -5164,7 +5165,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>34669</v>
       </c>
@@ -5184,7 +5185,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>54</v>
       </c>
@@ -5206,7 +5207,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>34700</v>
       </c>
@@ -5226,7 +5227,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>34731</v>
       </c>
@@ -5246,7 +5247,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>34759</v>
       </c>
@@ -5266,7 +5267,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>34790</v>
       </c>
@@ -5286,7 +5287,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>34820</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>55</v>
@@ -5334,7 +5335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>34851</v>
       </c>
@@ -5354,7 +5355,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>34881</v>
       </c>
@@ -5374,7 +5375,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>34912</v>
       </c>
@@ -5394,7 +5395,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>34943</v>
       </c>
@@ -5418,7 +5419,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>34973</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>35004</v>
       </c>
@@ -5464,7 +5465,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>35034</v>
       </c>
@@ -5484,7 +5485,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>53</v>
       </c>
@@ -5506,7 +5507,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>35065</v>
       </c>
@@ -5526,7 +5527,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>35096</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>35125</v>
       </c>
@@ -5572,7 +5573,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>35156</v>
       </c>
@@ -5592,7 +5593,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>35186</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>46</v>
@@ -5640,7 +5641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>62</v>
@@ -5660,7 +5661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>35217</v>
       </c>
@@ -5680,7 +5681,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>35247</v>
       </c>
@@ -5700,7 +5701,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>35278</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>66</v>
@@ -5748,7 +5749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>35309</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>35339</v>
       </c>
@@ -5792,7 +5793,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>35370</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>35400</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>75</v>
       </c>
@@ -5860,7 +5861,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>35431</v>
       </c>
@@ -5880,7 +5881,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>35462</v>
       </c>
@@ -5900,7 +5901,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>35490</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>35521</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>35551</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>35582</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>35612</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>35643</v>
       </c>
@@ -6050,7 +6051,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>35674</v>
       </c>
@@ -6070,7 +6071,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>35704</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>35735</v>
       </c>
@@ -6116,7 +6117,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>35765</v>
       </c>
@@ -6138,7 +6139,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>88</v>
@@ -6158,7 +6159,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>76</v>
       </c>
@@ -6180,7 +6181,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>35796</v>
       </c>
@@ -6204,7 +6205,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>35827</v>
       </c>
@@ -6228,7 +6229,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>35855</v>
       </c>
@@ -6248,7 +6249,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>35886</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>35916</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>91</v>
@@ -6320,7 +6321,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>35947</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>35977</v>
       </c>
@@ -6366,7 +6367,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>36008</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>94</v>
@@ -6412,7 +6413,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36039</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>96</v>
@@ -6456,7 +6457,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36069</v>
       </c>
@@ -6480,7 +6481,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36100</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>36130</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>48</v>
@@ -6554,7 +6555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>101</v>
@@ -6574,7 +6575,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="48" t="s">
         <v>77</v>
       </c>
@@ -6596,7 +6597,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36161</v>
       </c>
@@ -6620,7 +6621,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>36192</v>
       </c>
@@ -6644,7 +6645,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>36220</v>
       </c>
@@ -6668,7 +6669,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>36251</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>106</v>
@@ -6716,7 +6717,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>36281</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>66</v>
@@ -6764,7 +6765,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>110</v>
@@ -6784,7 +6785,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>36312</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>36342</v>
       </c>
@@ -6834,7 +6835,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>36373</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>114</v>
@@ -6880,7 +6881,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>36404</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>115</v>
@@ -6926,7 +6927,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>36434</v>
       </c>
@@ -6950,7 +6951,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>36465</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>118</v>
@@ -6994,7 +6995,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>36495</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>55</v>
@@ -7040,7 +7041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>119</v>
@@ -7062,7 +7063,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>78</v>
       </c>
@@ -7084,7 +7085,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>36526</v>
       </c>
@@ -7108,7 +7109,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>36557</v>
       </c>
@@ -7132,7 +7133,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>36586</v>
       </c>
@@ -7158,7 +7159,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>36617</v>
       </c>
@@ -7182,7 +7183,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>36647</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>128</v>
@@ -7226,7 +7227,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>36678</v>
       </c>
@@ -7246,7 +7247,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>36708</v>
       </c>
@@ -7270,7 +7271,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>36739</v>
       </c>
@@ -7294,7 +7295,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>36770</v>
       </c>
@@ -7314,7 +7315,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>36800</v>
       </c>
@@ -7338,7 +7339,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>36831</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>46</v>
@@ -7386,7 +7387,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>133</v>
@@ -7408,7 +7409,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>46</v>
@@ -7430,7 +7431,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>36861</v>
       </c>
@@ -7454,7 +7455,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="48" t="s">
         <v>137</v>
       </c>
@@ -7472,7 +7473,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>36892</v>
       </c>
@@ -7496,7 +7497,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>36923</v>
       </c>
@@ -7520,7 +7521,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>36951</v>
       </c>
@@ -7540,7 +7541,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>36982</v>
       </c>
@@ -7564,7 +7565,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>37012</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>145</v>
@@ -7610,7 +7611,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>37043</v>
       </c>
@@ -7632,7 +7633,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>37073</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>146</v>
@@ -7676,7 +7677,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>37104</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>145</v>
@@ -7722,7 +7723,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>37135</v>
       </c>
@@ -7746,7 +7747,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>37165</v>
       </c>
@@ -7776,7 +7777,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>37196</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>55</v>
@@ -7824,7 +7825,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>150</v>
@@ -7846,7 +7847,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>37226</v>
       </c>
@@ -7870,7 +7871,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="48" t="s">
         <v>138</v>
       </c>
@@ -7888,7 +7889,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>37257</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>37288</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>37316</v>
       </c>
@@ -7964,7 +7965,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>37347</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>46</v>
@@ -8012,7 +8013,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>46</v>
@@ -8034,7 +8035,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>160</v>
@@ -8054,7 +8055,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>37377</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>165</v>
@@ -8102,7 +8103,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>165</v>
@@ -8124,7 +8125,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>166</v>
@@ -8144,7 +8145,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>37408</v>
       </c>
@@ -8164,7 +8165,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>37438</v>
       </c>
@@ -8184,7 +8185,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>37469</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>168</v>
@@ -8230,7 +8231,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>37500</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -8274,7 +8275,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>37530</v>
       </c>
@@ -8294,7 +8295,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>37561</v>
       </c>
@@ -8318,7 +8319,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>37591</v>
       </c>
@@ -8342,7 +8343,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="48" t="s">
         <v>139</v>
       </c>
@@ -8364,7 +8365,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>37622</v>
       </c>
@@ -8388,7 +8389,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>37653</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>165</v>
@@ -8436,7 +8437,7 @@
         <v>37678</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -8456,7 +8457,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>37681</v>
       </c>
@@ -8476,7 +8477,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>37712</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>37742</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>48</v>
@@ -8546,7 +8547,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>37773</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>37803</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>37805</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>181</v>
@@ -8616,7 +8617,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="50"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>37834</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>225</v>
@@ -8662,7 +8663,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>225</v>
@@ -8682,7 +8683,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>37865</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>147</v>
@@ -8728,7 +8729,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>37895</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>186</v>
@@ -8774,7 +8775,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>37926</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>37938</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>186</v>
@@ -8820,7 +8821,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="50"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>37956</v>
       </c>
@@ -8844,7 +8845,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="48" t="s">
         <v>175</v>
       </c>
@@ -8866,7 +8867,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>37987</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>188</v>
@@ -8912,7 +8913,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>38018</v>
       </c>
@@ -8936,7 +8937,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>38047</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>38078</v>
       </c>
@@ -8986,7 +8987,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38108</v>
       </c>
@@ -9010,7 +9011,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38139</v>
       </c>
@@ -9034,7 +9035,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>38169</v>
       </c>
@@ -9058,7 +9059,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>38200</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>196</v>
@@ -9106,7 +9107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>38231</v>
       </c>
@@ -9130,7 +9131,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>38261</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>199</v>
@@ -9176,7 +9177,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="49"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>38292</v>
       </c>
@@ -9200,7 +9201,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>38322</v>
       </c>
@@ -9224,7 +9225,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="48" t="s">
         <v>176</v>
       </c>
@@ -9246,7 +9247,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>38353</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>204</v>
@@ -9292,7 +9293,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>38384</v>
       </c>
@@ -9318,7 +9319,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>38412</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>159</v>
@@ -9364,7 +9365,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>38443</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>60</v>
@@ -9412,7 +9413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>210</v>
@@ -9432,7 +9433,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>38473</v>
       </c>
@@ -9456,7 +9457,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>38504</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>213</v>
@@ -9502,7 +9503,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>38534</v>
       </c>
@@ -9526,7 +9527,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>38565</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>38589</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>215</v>
@@ -9572,7 +9573,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>38596</v>
       </c>
@@ -9596,7 +9597,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>38626</v>
       </c>
@@ -9620,7 +9621,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>38657</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>218</v>
@@ -9666,7 +9667,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>38687</v>
       </c>
@@ -9690,7 +9691,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="48" t="s">
         <v>177</v>
       </c>
@@ -9712,7 +9713,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>38718</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>140</v>
@@ -9756,7 +9757,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>38749</v>
       </c>
@@ -9780,7 +9781,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>38777</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>38789</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>227</v>
@@ -9826,7 +9827,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="50"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>38808</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>228</v>
@@ -9872,7 +9873,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>38838</v>
       </c>
@@ -9896,7 +9897,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>230</v>
@@ -9918,7 +9919,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>38869</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>38881</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>233</v>
@@ -9964,7 +9965,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="50"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>38899</v>
       </c>
@@ -9988,7 +9989,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>38930</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>235</v>
@@ -10034,7 +10035,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>38961</v>
       </c>
@@ -10058,7 +10059,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>38991</v>
       </c>
@@ -10082,7 +10083,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>39022</v>
       </c>
@@ -10106,7 +10107,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39052</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>39057</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>239</v>
@@ -10152,7 +10153,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="48" t="s">
         <v>220</v>
       </c>
@@ -10174,7 +10175,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>39083</v>
       </c>
@@ -10198,7 +10199,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>240</v>
@@ -10218,7 +10219,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>39114</v>
       </c>
@@ -10242,7 +10243,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>39142</v>
       </c>
@@ -10266,7 +10267,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>39173</v>
       </c>
@@ -10290,7 +10291,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>39203</v>
       </c>
@@ -10314,7 +10315,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39234</v>
       </c>
@@ -10338,7 +10339,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>39264</v>
       </c>
@@ -10364,7 +10365,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>246</v>
@@ -10382,7 +10383,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>39295</v>
       </c>
@@ -10406,7 +10407,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>39326</v>
       </c>
@@ -10430,7 +10431,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39356</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>225</v>
@@ -10476,7 +10477,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>249</v>
@@ -10496,7 +10497,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>39387</v>
       </c>
@@ -10520,7 +10521,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>39417</v>
       </c>
@@ -10544,7 +10545,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="48" t="s">
         <v>221</v>
       </c>
@@ -10566,7 +10567,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>39448</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>255</v>
@@ -10612,7 +10613,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39479</v>
       </c>
@@ -10636,7 +10637,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>39508</v>
       </c>
@@ -10662,7 +10663,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>258</v>
@@ -10682,7 +10683,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39539</v>
       </c>
@@ -10706,7 +10707,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>39569</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>260</v>
@@ -10752,7 +10753,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -10776,7 +10777,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>39630</v>
       </c>
@@ -10800,7 +10801,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>39661</v>
       </c>
@@ -10824,7 +10825,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>39692</v>
       </c>
@@ -10848,7 +10849,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>39722</v>
       </c>
@@ -10872,7 +10873,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>39753</v>
       </c>
@@ -10896,7 +10897,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>39783</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>267</v>
@@ -10940,7 +10941,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>268</v>
@@ -10960,7 +10961,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="48" t="s">
         <v>222</v>
       </c>
@@ -10982,7 +10983,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>39814</v>
       </c>
@@ -11008,7 +11009,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>39845</v>
       </c>
@@ -11034,7 +11035,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>39873</v>
       </c>
@@ -11056,7 +11057,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>149</v>
@@ -11078,7 +11079,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>39904</v>
       </c>
@@ -11104,7 +11105,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39934</v>
       </c>
@@ -11128,7 +11129,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>39965</v>
       </c>
@@ -11152,7 +11153,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>39995</v>
       </c>
@@ -11176,7 +11177,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>40026</v>
       </c>
@@ -11202,7 +11203,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40057</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>278</v>
@@ -11246,7 +11247,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>40087</v>
       </c>
@@ -11272,7 +11273,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40118</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>282</v>
@@ -11316,7 +11317,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40148</v>
       </c>
@@ -11340,7 +11341,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="48" t="s">
         <v>223</v>
       </c>
@@ -11362,7 +11363,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40179</v>
       </c>
@@ -11386,7 +11387,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>40210</v>
       </c>
@@ -11410,7 +11411,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>40238</v>
       </c>
@@ -11438,7 +11439,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>40269</v>
       </c>
@@ -11462,7 +11463,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>40299</v>
       </c>
@@ -11488,7 +11489,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>288</v>
@@ -11508,7 +11509,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>40330</v>
       </c>
@@ -11536,7 +11537,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40360</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>40391</v>
       </c>
@@ -11588,7 +11589,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>40422</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>40452</v>
       </c>
@@ -11634,7 +11635,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40483</v>
       </c>
@@ -11662,7 +11663,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>40513</v>
       </c>
@@ -11688,7 +11689,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>66</v>
@@ -11710,7 +11711,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>186</v>
@@ -11730,7 +11731,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>224</v>
       </c>
@@ -11752,7 +11753,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11776,7 +11777,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>40575</v>
       </c>
@@ -11800,7 +11801,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>40603</v>
       </c>
@@ -11826,7 +11827,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>225</v>
@@ -11846,7 +11847,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>305</v>
@@ -11868,7 +11869,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>40634</v>
       </c>
@@ -11894,7 +11895,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>172</v>
@@ -11914,7 +11915,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>40664</v>
       </c>
@@ -11938,7 +11939,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40695</v>
       </c>
@@ -11966,7 +11967,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40725</v>
       </c>
@@ -11990,7 +11991,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40756</v>
       </c>
@@ -12014,7 +12015,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>40787</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>40817</v>
       </c>
@@ -12064,7 +12065,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40848</v>
       </c>
@@ -12088,7 +12089,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>292</v>
@@ -12108,7 +12109,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>40878</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>310</v>
@@ -12158,7 +12159,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="48" t="s">
         <v>299</v>
       </c>
@@ -12180,7 +12181,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>40909</v>
       </c>
@@ -12204,7 +12205,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40940</v>
       </c>
@@ -12228,7 +12229,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40969</v>
       </c>
@@ -12252,7 +12253,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>41000</v>
       </c>
@@ -12276,7 +12277,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>41030</v>
       </c>
@@ -12300,7 +12301,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>41061</v>
       </c>
@@ -12324,7 +12325,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>41091</v>
       </c>
@@ -12354,7 +12355,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>149</v>
@@ -12372,12 +12373,12 @@
       <c r="H359" s="39"/>
       <c r="I359" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>271.375</v>
+        <v>271.625</v>
       </c>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41122</v>
       </c>
@@ -12401,7 +12402,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41153</v>
       </c>
@@ -12425,7 +12426,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41183</v>
       </c>
@@ -12451,7 +12452,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>41214</v>
       </c>
@@ -12475,7 +12476,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>320</v>
@@ -12495,7 +12496,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>325</v>
@@ -12515,7 +12516,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>41244</v>
       </c>
@@ -12539,7 +12540,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>254</v>
@@ -12561,7 +12562,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>321</v>
@@ -12581,7 +12582,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="48" t="s">
         <v>300</v>
       </c>
@@ -12603,7 +12604,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41275</v>
       </c>
@@ -12627,7 +12628,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>142</v>
@@ -12647,7 +12648,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>41306</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>148</v>
@@ -12691,7 +12692,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41334</v>
       </c>
@@ -12715,7 +12716,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41365</v>
       </c>
@@ -12741,7 +12742,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>329</v>
@@ -12761,7 +12762,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="49"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>41395</v>
       </c>
@@ -12787,7 +12788,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>48</v>
@@ -12809,7 +12810,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>332</v>
@@ -12829,7 +12830,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41426</v>
       </c>
@@ -12853,7 +12854,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41456</v>
       </c>
@@ -12879,7 +12880,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>149</v>
@@ -12899,7 +12900,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>41487</v>
       </c>
@@ -12923,7 +12924,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>41518</v>
       </c>
@@ -12949,7 +12950,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>335</v>
@@ -12969,7 +12970,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41548</v>
       </c>
@@ -12993,7 +12994,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>41579</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>336</v>
@@ -13037,7 +13038,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>41609</v>
       </c>
@@ -13063,7 +13064,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>337</v>
@@ -13083,7 +13084,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="48" t="s">
         <v>301</v>
       </c>
@@ -13105,7 +13106,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41640</v>
       </c>
@@ -13129,7 +13130,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>41671</v>
       </c>
@@ -13153,7 +13154,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41699</v>
       </c>
@@ -13179,7 +13180,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>342</v>
@@ -13199,7 +13200,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>41730</v>
       </c>
@@ -13225,7 +13226,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>345</v>
@@ -13245,7 +13246,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41760</v>
       </c>
@@ -13271,7 +13272,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>346</v>
@@ -13291,7 +13292,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>41791</v>
       </c>
@@ -13315,7 +13316,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>41821</v>
       </c>
@@ -13339,7 +13340,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41852</v>
       </c>
@@ -13363,7 +13364,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>41883</v>
       </c>
@@ -13387,7 +13388,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41913</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13435,7 +13436,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>350</v>
@@ -13455,7 +13456,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>41944</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>351</v>
@@ -13499,7 +13500,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>41974</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>352</v>
@@ -13543,7 +13544,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="48" t="s">
         <v>302</v>
       </c>
@@ -13565,7 +13566,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>42005</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>60</v>
@@ -13613,7 +13614,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>267</v>
@@ -13633,7 +13634,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>354</v>
@@ -13653,7 +13654,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>42036</v>
       </c>
@@ -13677,7 +13678,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>42064</v>
       </c>
@@ -13703,7 +13704,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>48</v>
@@ -13725,7 +13726,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>364</v>
@@ -13745,7 +13746,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>42095</v>
       </c>
@@ -13769,7 +13770,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42125</v>
       </c>
@@ -13793,7 +13794,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42156</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>367</v>
@@ -13839,7 +13840,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42186</v>
       </c>
@@ -13863,7 +13864,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>42217</v>
       </c>
@@ -13889,7 +13890,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>48</v>
@@ -13911,7 +13912,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>369</v>
@@ -13931,7 +13932,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42248</v>
       </c>
@@ -13957,7 +13958,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>370</v>
@@ -13977,7 +13978,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42278</v>
       </c>
@@ -14001,7 +14002,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>42309</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>66</v>
@@ -14049,7 +14050,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>225</v>
@@ -14069,7 +14070,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>187</v>
@@ -14091,7 +14092,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>187</v>
@@ -14113,7 +14114,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>226</v>
@@ -14133,7 +14134,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>42339</v>
       </c>
@@ -14157,7 +14158,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="48" t="s">
         <v>357</v>
       </c>
@@ -14179,7 +14180,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>42370</v>
       </c>
@@ -14203,7 +14204,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>42401</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>66</v>
@@ -14249,7 +14250,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>42430</v>
       </c>
@@ -14275,7 +14276,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42461</v>
       </c>
@@ -14295,7 +14296,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42491</v>
       </c>
@@ -14315,7 +14316,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>42522</v>
       </c>
@@ -14335,7 +14336,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42552</v>
       </c>
@@ -14355,7 +14356,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>42583</v>
       </c>
@@ -14381,7 +14382,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42614</v>
       </c>
@@ -14401,7 +14402,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42644</v>
       </c>
@@ -14421,7 +14422,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42675</v>
       </c>
@@ -14441,7 +14442,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42705</v>
       </c>
@@ -14467,7 +14468,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>358</v>
       </c>
@@ -14489,7 +14490,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>42736</v>
       </c>
@@ -14515,7 +14516,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>42767</v>
       </c>
@@ -14541,7 +14542,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>225</v>
@@ -14559,7 +14560,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42795</v>
       </c>
@@ -14579,7 +14580,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42826</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>42856</v>
       </c>
@@ -14621,7 +14622,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42887</v>
       </c>
@@ -14641,7 +14642,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>42917</v>
       </c>
@@ -14661,7 +14662,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>42948</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>42979</v>
       </c>
@@ -14707,7 +14708,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43009</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -14781,7 +14782,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>320</v>
@@ -14801,7 +14802,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="48" t="s">
         <v>359</v>
       </c>
@@ -14823,7 +14824,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43101</v>
       </c>
@@ -14849,7 +14850,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>225</v>
@@ -14867,7 +14868,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43132</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>66</v>
@@ -14913,7 +14914,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43160</v>
       </c>
@@ -14933,7 +14934,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43191</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43221</v>
       </c>
@@ -14983,7 +14984,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>66</v>
@@ -15005,7 +15006,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>55</v>
@@ -15027,7 +15028,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>388</v>
@@ -15049,7 +15050,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43252</v>
       </c>
@@ -15073,7 +15074,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43282</v>
       </c>
@@ -15099,7 +15100,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>150</v>
@@ -15119,7 +15120,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43313</v>
       </c>
@@ -15145,7 +15146,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>273</v>
@@ -15165,7 +15166,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="49"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43344</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>399</v>
@@ -15211,7 +15212,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43374</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>130</v>
@@ -15257,7 +15258,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43405</v>
       </c>
@@ -15283,7 +15284,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>400</v>
@@ -15303,7 +15304,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43435</v>
       </c>
@@ -15329,7 +15330,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>383</v>
@@ -15351,7 +15352,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>347</v>
@@ -15371,7 +15372,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="48" t="s">
         <v>360</v>
       </c>
@@ -15393,7 +15394,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43466</v>
       </c>
@@ -15413,7 +15414,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43497</v>
       </c>
@@ -15437,7 +15438,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>66</v>
@@ -15457,7 +15458,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15477,7 +15478,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>43586</v>
       </c>
@@ -15529,7 +15530,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43617</v>
       </c>
@@ -15555,7 +15556,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43647</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43678</v>
       </c>
@@ -15601,7 +15602,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43709</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43739</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43770</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>407</v>
@@ -15701,7 +15702,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>60</v>
@@ -15723,7 +15724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>43800</v>
       </c>
@@ -15743,7 +15744,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="48" t="s">
         <v>361</v>
       </c>
@@ -15765,7 +15766,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43831</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>43862</v>
       </c>
@@ -15809,7 +15810,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43891</v>
       </c>
@@ -15829,7 +15830,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43922</v>
       </c>
@@ -15849,7 +15850,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43952</v>
       </c>
@@ -15869,7 +15870,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43983</v>
       </c>
@@ -15889,7 +15890,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44013</v>
       </c>
@@ -15915,7 +15916,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44044</v>
       </c>
@@ -15935,7 +15936,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44075</v>
       </c>
@@ -15955,7 +15956,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44105</v>
       </c>
@@ -15975,7 +15976,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44136</v>
       </c>
@@ -15995,7 +15996,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44166</v>
       </c>
@@ -16021,7 +16022,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="48" t="s">
         <v>362</v>
       </c>
@@ -16043,7 +16044,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44197</v>
       </c>
@@ -16063,7 +16064,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44228</v>
       </c>
@@ -16083,7 +16084,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44256</v>
       </c>
@@ -16103,7 +16104,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44287</v>
       </c>
@@ -16123,7 +16124,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44317</v>
       </c>
@@ -16143,7 +16144,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44348</v>
       </c>
@@ -16163,7 +16164,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44378</v>
       </c>
@@ -16183,7 +16184,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44409</v>
       </c>
@@ -16203,7 +16204,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44440</v>
       </c>
@@ -16223,7 +16224,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44470</v>
       </c>
@@ -16247,7 +16248,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44501</v>
       </c>
@@ -16267,7 +16268,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44531</v>
       </c>
@@ -16293,7 +16294,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="48" t="s">
         <v>398</v>
       </c>
@@ -16315,7 +16316,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44562</v>
       </c>
@@ -16335,7 +16336,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44593</v>
       </c>
@@ -16355,7 +16356,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44621</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>444</v>
@@ -16401,7 +16402,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="50"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44652</v>
       </c>
@@ -16427,7 +16428,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>443</v>
@@ -16447,7 +16448,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="50"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44682</v>
       </c>
@@ -16471,7 +16472,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44713</v>
       </c>
@@ -16495,7 +16496,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44743</v>
       </c>
@@ -16521,7 +16522,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>334</v>
@@ -16541,7 +16542,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44774</v>
       </c>
@@ -16567,7 +16568,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>439</v>
@@ -16587,7 +16588,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="50"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44805</v>
       </c>
@@ -16611,7 +16612,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44835</v>
       </c>
@@ -16635,7 +16636,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44866</v>
       </c>
@@ -16661,7 +16662,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>437</v>
@@ -16681,7 +16682,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44896</v>
       </c>
@@ -16707,7 +16708,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>435</v>
@@ -16729,7 +16730,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>436</v>
@@ -16749,7 +16750,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="50"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="48" t="s">
         <v>423</v>
       </c>
@@ -16767,7 +16768,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44927</v>
       </c>
@@ -16787,7 +16788,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>44958</v>
       </c>
@@ -16807,7 +16808,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>44986</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45017</v>
       </c>
@@ -16859,7 +16860,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45047</v>
       </c>
@@ -16879,7 +16880,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45078</v>
       </c>
@@ -16899,7 +16900,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>45108</v>
       </c>
@@ -16925,7 +16926,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>267</v>
@@ -16945,7 +16946,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>60</v>
@@ -16967,7 +16968,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45139</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45170</v>
       </c>
@@ -17013,7 +17014,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>45200</v>
       </c>
@@ -17033,7 +17034,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45231</v>
       </c>
@@ -17059,47 +17060,49 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B568" s="20"/>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A568" s="40"/>
+      <c r="B568" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C568" s="13"/>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
-    </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="48" t="s">
-        <v>445</v>
+      <c r="K568" s="50">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569" s="40">
+        <v>45261</v>
       </c>
       <c r="B569" s="20"/>
-      <c r="C569" s="13"/>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G569" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40">
-        <v>45292</v>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570" s="48" t="s">
+        <v>445</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -17115,27 +17118,35 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B571" s="20"/>
-      <c r="C571" s="13"/>
+        <v>45292</v>
+      </c>
+      <c r="B571" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C571" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D571" s="39"/>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H571" s="39"/>
+      <c r="G571" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H571" s="39">
+        <v>1</v>
+      </c>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="20"/>
-    </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K571" s="50">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17151,9 +17162,9 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17169,9 +17180,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17187,9 +17198,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17205,9 +17216,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17223,9 +17234,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17241,9 +17252,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17259,9 +17270,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17277,9 +17288,9 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17295,9 +17306,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17313,9 +17324,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17331,9 +17342,9 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17349,9 +17360,9 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17367,9 +17378,9 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17385,9 +17396,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17403,8 +17414,10 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A587" s="40">
+        <v>45778</v>
+      </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
@@ -17419,7 +17432,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17435,7 +17448,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17451,7 +17464,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17467,7 +17480,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17483,7 +17496,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17499,7 +17512,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17515,7 +17528,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17531,7 +17544,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17547,7 +17560,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17563,7 +17576,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17579,7 +17592,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17595,7 +17608,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17611,7 +17624,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17627,7 +17640,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17643,7 +17656,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17659,7 +17672,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17675,7 +17688,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17691,7 +17704,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17707,7 +17720,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17723,7 +17736,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17739,7 +17752,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17755,7 +17768,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17771,21 +17784,37 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="41"/>
-      <c r="B610" s="15"/>
-      <c r="C610" s="42"/>
-      <c r="D610" s="43"/>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A610" s="40"/>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
       <c r="E610" s="9"/>
-      <c r="F610" s="15"/>
-      <c r="G610" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H610" s="43"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
       <c r="I610" s="9"/>
-      <c r="J610" s="12"/>
-      <c r="K610" s="15"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A611" s="41"/>
+      <c r="B611" s="15"/>
+      <c r="C611" s="42"/>
+      <c r="D611" s="43"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="15"/>
+      <c r="G611" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="43"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="12"/>
+      <c r="K611" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17802,10 +17831,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17828,7 +17857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17836,21 +17865,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -17863,7 +17892,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17892,7 +17921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17918,17 +17947,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>429</v>
       </c>
@@ -17952,10 +17981,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>399.78900000000004</v>
+        <v>401.28900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -17983,7 +18012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18009,7 +18038,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18035,7 +18064,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18061,7 +18090,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18087,7 +18116,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18113,7 +18142,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18139,7 +18168,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18165,7 +18194,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18185,7 +18214,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18205,7 +18234,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18225,7 +18254,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18246,7 +18275,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18267,7 +18296,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18288,7 +18317,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18309,7 +18338,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18330,7 +18359,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18351,7 +18380,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18372,7 +18401,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18393,7 +18422,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18414,7 +18443,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18435,7 +18464,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18456,7 +18485,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18477,7 +18506,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18498,7 +18527,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18519,7 +18548,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18540,7 +18569,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18561,7 +18590,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18582,7 +18611,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18603,7 +18632,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18624,7 +18653,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18645,7 +18674,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18654,7 +18683,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18663,7 +18692,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18672,7 +18701,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18681,7 +18710,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18690,7 +18719,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18699,7 +18728,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18708,7 +18737,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18717,7 +18746,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18726,7 +18755,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18735,7 +18764,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18744,7 +18773,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18753,7 +18782,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18762,7 +18791,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18771,7 +18800,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18780,7 +18809,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18789,7 +18818,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18798,7 +18827,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18807,7 +18836,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18816,7 +18845,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18825,7 +18854,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18834,7 +18863,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18843,7 +18872,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18852,7 +18881,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18861,7 +18890,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18870,7 +18899,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18879,7 +18908,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18888,7 +18917,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18897,7 +18926,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18906,7 +18935,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
